--- a/TestCases/GMSSCampaigns.xlsx
+++ b/TestCases/GMSSCampaigns.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>keyword</t>
   </si>
@@ -174,6 +174,12 @@
     <t>1</t>
   </si>
   <si>
+    <t>GMSSCamPaignsTest.DeleteFirstCampaign</t>
+  </si>
+  <si>
+    <t>{skip}</t>
+  </si>
+  <si>
     <t>1.1 - Create display campaign: several traffic sources, 1 adset per traffic source</t>
   </si>
   <si>
@@ -209,10 +215,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -348,13 +354,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,12 +768,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:ARU38"/>
+  <dimension ref="A1:ARU40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15.75"/>
@@ -9157,8 +9163,6 @@
       <c r="G15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -10319,7 +10323,6 @@
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
       <c r="E16" s="13" t="s">
         <v>15</v>
       </c>
@@ -10332,8 +10335,6 @@
       <c r="H16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I16"/>
-      <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
@@ -11506,9 +11507,6 @@
       <c r="G17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="9"/>
-      <c r="I17"/>
-      <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -12684,7 +12682,6 @@
       <c r="H18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I18"/>
       <c r="J18" s="5" t="s">
         <v>26</v>
       </c>
@@ -13848,7 +13845,6 @@
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
       <c r="E19" s="13" t="s">
         <v>27</v>
       </c>
@@ -13861,7 +13857,6 @@
       <c r="H19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I19"/>
       <c r="J19" s="5" t="s">
         <v>26</v>
       </c>
@@ -15025,14 +15020,9 @@
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
       <c r="G20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20"/>
       <c r="J20" s="5" t="s">
         <v>31</v>
       </c>
@@ -16211,7 +16201,6 @@
       <c r="H21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I21"/>
       <c r="J21" s="5" t="s">
         <v>31</v>
       </c>
@@ -18542,19 +18531,23 @@
       <c r="ART22" s="5"/>
       <c r="ARU22" s="5"/>
     </row>
-    <row r="23" spans="1:1165">
+    <row r="23" ht="31.5" spans="1:1165">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
-      <c r="G23" s="3" t="s">
-        <v>46</v>
+      <c r="G23" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
+      <c r="I23" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" t="s">
+        <v>52</v>
+      </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -19711,27 +19704,18 @@
       <c r="ART23" s="5"/>
       <c r="ARU23" s="5"/>
     </row>
-    <row r="24" ht="47.25" spans="1:1165">
-      <c r="A24" s="5" t="s">
-        <v>10</v>
+    <row r="24" spans="1:1165">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24" s="3" t="s">
+        <v>46</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24"/>
-      <c r="J24" s="5"/>
+      <c r="H24"/>
+      <c r="J24"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -20888,23 +20872,22 @@
       <c r="ART24" s="5"/>
       <c r="ARU24" s="5"/>
     </row>
-    <row r="25" spans="1:1165">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="E25" s="13" t="s">
-        <v>15</v>
+    <row r="25" ht="47.25" spans="1:1165">
+      <c r="A25" s="5" t="s">
+        <v>10</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>16</v>
+      <c r="B25" s="3" t="s">
+        <v>53</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>17</v>
+      <c r="C25" s="12" t="s">
+        <v>54</v>
       </c>
-      <c r="H25" s="9" t="s">
-        <v>18</v>
+      <c r="D25" s="5" t="s">
+        <v>13</v>
       </c>
-      <c r="I25"/>
+      <c r="G25" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -22065,9 +22048,6 @@
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="E26" s="13" t="s">
         <v>15</v>
       </c>
@@ -22075,10 +22055,11 @@
         <v>16</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26"/>
+      <c r="H26" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -23240,23 +23221,16 @@
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>22</v>
+      <c r="E27" s="13" t="s">
+        <v>15</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>23</v>
+      <c r="F27" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27"/>
-      <c r="J27" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -24418,19 +24392,21 @@
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="E28" s="13" t="s">
-        <v>27</v>
+      <c r="D28" s="5" t="s">
+        <v>21</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>28</v>
+      <c r="E28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>29</v>
+      <c r="H28" s="18" t="s">
+        <v>25</v>
       </c>
-      <c r="I28"/>
       <c r="J28" s="5" t="s">
         <v>26</v>
       </c>
@@ -25590,17 +25566,24 @@
       <c r="ART28" s="5"/>
       <c r="ARU28" s="5"/>
     </row>
-    <row r="29" ht="31.5" spans="1:1165">
+    <row r="29" spans="1:1165">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
+      <c r="E29" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="G29" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
-      <c r="H29" s="9"/>
-      <c r="I29"/>
+      <c r="H29" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="J29" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -26762,22 +26745,9 @@
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="5" t="s">
-        <v>21</v>
+      <c r="G30" s="3" t="s">
+        <v>30</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30"/>
       <c r="J30" s="5" t="s">
         <v>31</v>
       </c>
@@ -27941,12 +27911,23 @@
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="G31" s="12" t="s">
-        <v>53</v>
+      <c r="D31" s="5" t="s">
+        <v>21</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="21" t="s">
-        <v>50</v>
+      <c r="E31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -29104,15 +29085,17 @@
       <c r="ART31" s="5"/>
       <c r="ARU31" s="5"/>
     </row>
-    <row r="32" spans="1:1165">
+    <row r="32" ht="31.5" spans="1:1165">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="G32" s="3" t="s">
-        <v>46</v>
+      <c r="G32" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="I32" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -30269,13 +30252,20 @@
       <c r="ART32" s="5"/>
       <c r="ARU32" s="5"/>
     </row>
-    <row r="33" spans="1:1165">
+    <row r="33" ht="31.5" spans="1:1165">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="G33" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="I33" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" t="s">
+        <v>52</v>
+      </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -31436,7 +31426,9 @@
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="G34" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
       <c r="K34" s="5"/>
@@ -37247,6 +37239,2332 @@
       <c r="ART38" s="5"/>
       <c r="ARU38" s="5"/>
     </row>
+    <row r="39" spans="1:1165">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
+      <c r="AI39" s="5"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="5"/>
+      <c r="AR39" s="5"/>
+      <c r="AS39" s="5"/>
+      <c r="AT39" s="5"/>
+      <c r="AU39" s="5"/>
+      <c r="AV39" s="5"/>
+      <c r="AW39" s="5"/>
+      <c r="AX39" s="5"/>
+      <c r="AY39" s="5"/>
+      <c r="AZ39" s="5"/>
+      <c r="BA39" s="5"/>
+      <c r="BB39" s="5"/>
+      <c r="BC39" s="5"/>
+      <c r="BD39" s="5"/>
+      <c r="BE39" s="5"/>
+      <c r="BF39" s="5"/>
+      <c r="BG39" s="5"/>
+      <c r="BH39" s="5"/>
+      <c r="BI39" s="5"/>
+      <c r="BJ39" s="5"/>
+      <c r="BK39" s="5"/>
+      <c r="BL39" s="5"/>
+      <c r="BM39" s="5"/>
+      <c r="BN39" s="5"/>
+      <c r="BO39" s="5"/>
+      <c r="BP39" s="5"/>
+      <c r="BQ39" s="5"/>
+      <c r="BR39" s="5"/>
+      <c r="BS39" s="5"/>
+      <c r="BT39" s="5"/>
+      <c r="BU39" s="5"/>
+      <c r="BV39" s="5"/>
+      <c r="BW39" s="5"/>
+      <c r="BX39" s="5"/>
+      <c r="BY39" s="5"/>
+      <c r="BZ39" s="5"/>
+      <c r="CA39" s="5"/>
+      <c r="CB39" s="5"/>
+      <c r="CC39" s="5"/>
+      <c r="CD39" s="5"/>
+      <c r="CE39" s="5"/>
+      <c r="CF39" s="5"/>
+      <c r="CG39" s="5"/>
+      <c r="CH39" s="5"/>
+      <c r="CI39" s="5"/>
+      <c r="CJ39" s="5"/>
+      <c r="CK39" s="5"/>
+      <c r="CL39" s="5"/>
+      <c r="CM39" s="5"/>
+      <c r="CN39" s="5"/>
+      <c r="CO39" s="5"/>
+      <c r="CP39" s="5"/>
+      <c r="CQ39" s="5"/>
+      <c r="CR39" s="5"/>
+      <c r="CS39" s="5"/>
+      <c r="CT39" s="5"/>
+      <c r="CU39" s="5"/>
+      <c r="CV39" s="5"/>
+      <c r="CW39" s="5"/>
+      <c r="CX39" s="5"/>
+      <c r="CY39" s="5"/>
+      <c r="CZ39" s="5"/>
+      <c r="DA39" s="5"/>
+      <c r="DB39" s="5"/>
+      <c r="DC39" s="5"/>
+      <c r="DD39" s="5"/>
+      <c r="DE39" s="5"/>
+      <c r="DF39" s="5"/>
+      <c r="DG39" s="5"/>
+      <c r="DH39" s="5"/>
+      <c r="DI39" s="5"/>
+      <c r="DJ39" s="5"/>
+      <c r="DK39" s="5"/>
+      <c r="DL39" s="5"/>
+      <c r="DM39" s="5"/>
+      <c r="DN39" s="5"/>
+      <c r="DO39" s="5"/>
+      <c r="DP39" s="5"/>
+      <c r="DQ39" s="5"/>
+      <c r="DR39" s="5"/>
+      <c r="DS39" s="5"/>
+      <c r="DT39" s="5"/>
+      <c r="DU39" s="5"/>
+      <c r="DV39" s="5"/>
+      <c r="DW39" s="5"/>
+      <c r="DX39" s="5"/>
+      <c r="DY39" s="5"/>
+      <c r="DZ39" s="5"/>
+      <c r="EA39" s="5"/>
+      <c r="EB39" s="5"/>
+      <c r="EC39" s="5"/>
+      <c r="ED39" s="5"/>
+      <c r="EE39" s="5"/>
+      <c r="EF39" s="5"/>
+      <c r="EG39" s="5"/>
+      <c r="EH39" s="5"/>
+      <c r="EI39" s="5"/>
+      <c r="EJ39" s="5"/>
+      <c r="EK39" s="5"/>
+      <c r="EL39" s="5"/>
+      <c r="EM39" s="5"/>
+      <c r="EN39" s="5"/>
+      <c r="EO39" s="5"/>
+      <c r="EP39" s="5"/>
+      <c r="EQ39" s="5"/>
+      <c r="ER39" s="5"/>
+      <c r="ES39" s="5"/>
+      <c r="ET39" s="5"/>
+      <c r="EU39" s="5"/>
+      <c r="EV39" s="5"/>
+      <c r="EW39" s="5"/>
+      <c r="EX39" s="5"/>
+      <c r="EY39" s="5"/>
+      <c r="EZ39" s="5"/>
+      <c r="FA39" s="5"/>
+      <c r="FB39" s="5"/>
+      <c r="FC39" s="5"/>
+      <c r="FD39" s="5"/>
+      <c r="FE39" s="5"/>
+      <c r="FF39" s="5"/>
+      <c r="FG39" s="5"/>
+      <c r="FH39" s="5"/>
+      <c r="FI39" s="5"/>
+      <c r="FJ39" s="5"/>
+      <c r="FK39" s="5"/>
+      <c r="FL39" s="5"/>
+      <c r="FM39" s="5"/>
+      <c r="FN39" s="5"/>
+      <c r="FO39" s="5"/>
+      <c r="FP39" s="5"/>
+      <c r="FQ39" s="5"/>
+      <c r="FR39" s="5"/>
+      <c r="FS39" s="5"/>
+      <c r="FT39" s="5"/>
+      <c r="FU39" s="5"/>
+      <c r="FV39" s="5"/>
+      <c r="FW39" s="5"/>
+      <c r="FX39" s="5"/>
+      <c r="FY39" s="5"/>
+      <c r="FZ39" s="5"/>
+      <c r="GA39" s="5"/>
+      <c r="GB39" s="5"/>
+      <c r="GC39" s="5"/>
+      <c r="GD39" s="5"/>
+      <c r="GE39" s="5"/>
+      <c r="GF39" s="5"/>
+      <c r="GG39" s="5"/>
+      <c r="GH39" s="5"/>
+      <c r="GI39" s="5"/>
+      <c r="GJ39" s="5"/>
+      <c r="GK39" s="5"/>
+      <c r="GL39" s="5"/>
+      <c r="GM39" s="5"/>
+      <c r="GN39" s="5"/>
+      <c r="GO39" s="5"/>
+      <c r="GP39" s="5"/>
+      <c r="GQ39" s="5"/>
+      <c r="GR39" s="5"/>
+      <c r="GS39" s="5"/>
+      <c r="GT39" s="5"/>
+      <c r="GU39" s="5"/>
+      <c r="GV39" s="5"/>
+      <c r="GW39" s="5"/>
+      <c r="GX39" s="5"/>
+      <c r="GY39" s="5"/>
+      <c r="GZ39" s="5"/>
+      <c r="HA39" s="5"/>
+      <c r="HB39" s="5"/>
+      <c r="HC39" s="5"/>
+      <c r="HD39" s="5"/>
+      <c r="HE39" s="5"/>
+      <c r="HF39" s="5"/>
+      <c r="HG39" s="5"/>
+      <c r="HH39" s="5"/>
+      <c r="HI39" s="5"/>
+      <c r="HJ39" s="5"/>
+      <c r="HK39" s="5"/>
+      <c r="HL39" s="5"/>
+      <c r="HM39" s="5"/>
+      <c r="HN39" s="5"/>
+      <c r="HO39" s="5"/>
+      <c r="HP39" s="5"/>
+      <c r="HQ39" s="5"/>
+      <c r="HR39" s="5"/>
+      <c r="HS39" s="5"/>
+      <c r="HT39" s="5"/>
+      <c r="HU39" s="5"/>
+      <c r="HV39" s="5"/>
+      <c r="HW39" s="5"/>
+      <c r="HX39" s="5"/>
+      <c r="HY39" s="5"/>
+      <c r="HZ39" s="5"/>
+      <c r="IA39" s="5"/>
+      <c r="IB39" s="5"/>
+      <c r="IC39" s="5"/>
+      <c r="ID39" s="5"/>
+      <c r="IE39" s="5"/>
+      <c r="IF39" s="5"/>
+      <c r="IG39" s="5"/>
+      <c r="IH39" s="5"/>
+      <c r="II39" s="5"/>
+      <c r="IJ39" s="5"/>
+      <c r="IK39" s="5"/>
+      <c r="IL39" s="5"/>
+      <c r="IM39" s="5"/>
+      <c r="IN39" s="5"/>
+      <c r="IO39" s="5"/>
+      <c r="IP39" s="5"/>
+      <c r="IQ39" s="5"/>
+      <c r="IR39" s="5"/>
+      <c r="IS39" s="5"/>
+      <c r="IT39" s="5"/>
+      <c r="IU39" s="5"/>
+      <c r="IV39" s="5"/>
+      <c r="IW39" s="5"/>
+      <c r="IX39" s="5"/>
+      <c r="IY39" s="5"/>
+      <c r="IZ39" s="5"/>
+      <c r="JA39" s="5"/>
+      <c r="JB39" s="5"/>
+      <c r="JC39" s="5"/>
+      <c r="JD39" s="5"/>
+      <c r="JE39" s="5"/>
+      <c r="JF39" s="5"/>
+      <c r="JG39" s="5"/>
+      <c r="JH39" s="5"/>
+      <c r="JI39" s="5"/>
+      <c r="JJ39" s="5"/>
+      <c r="JK39" s="5"/>
+      <c r="JL39" s="5"/>
+      <c r="JM39" s="5"/>
+      <c r="JN39" s="5"/>
+      <c r="JO39" s="5"/>
+      <c r="JP39" s="5"/>
+      <c r="JQ39" s="5"/>
+      <c r="JR39" s="5"/>
+      <c r="JS39" s="5"/>
+      <c r="JT39" s="5"/>
+      <c r="JU39" s="5"/>
+      <c r="JV39" s="5"/>
+      <c r="JW39" s="5"/>
+      <c r="JX39" s="5"/>
+      <c r="JY39" s="5"/>
+      <c r="JZ39" s="5"/>
+      <c r="KA39" s="5"/>
+      <c r="KB39" s="5"/>
+      <c r="KC39" s="5"/>
+      <c r="KD39" s="5"/>
+      <c r="KE39" s="5"/>
+      <c r="KF39" s="5"/>
+      <c r="KG39" s="5"/>
+      <c r="KH39" s="5"/>
+      <c r="KI39" s="5"/>
+      <c r="KJ39" s="5"/>
+      <c r="KK39" s="5"/>
+      <c r="KL39" s="5"/>
+      <c r="KM39" s="5"/>
+      <c r="KN39" s="5"/>
+      <c r="KO39" s="5"/>
+      <c r="KP39" s="5"/>
+      <c r="KQ39" s="5"/>
+      <c r="KR39" s="5"/>
+      <c r="KS39" s="5"/>
+      <c r="KT39" s="5"/>
+      <c r="KU39" s="5"/>
+      <c r="KV39" s="5"/>
+      <c r="KW39" s="5"/>
+      <c r="KX39" s="5"/>
+      <c r="KY39" s="5"/>
+      <c r="KZ39" s="5"/>
+      <c r="LA39" s="5"/>
+      <c r="LB39" s="5"/>
+      <c r="LC39" s="5"/>
+      <c r="LD39" s="5"/>
+      <c r="LE39" s="5"/>
+      <c r="LF39" s="5"/>
+      <c r="LG39" s="5"/>
+      <c r="LH39" s="5"/>
+      <c r="LI39" s="5"/>
+      <c r="LJ39" s="5"/>
+      <c r="LK39" s="5"/>
+      <c r="LL39" s="5"/>
+      <c r="LM39" s="5"/>
+      <c r="LN39" s="5"/>
+      <c r="LO39" s="5"/>
+      <c r="LP39" s="5"/>
+      <c r="LQ39" s="5"/>
+      <c r="LR39" s="5"/>
+      <c r="LS39" s="5"/>
+      <c r="LT39" s="5"/>
+      <c r="LU39" s="5"/>
+      <c r="LV39" s="5"/>
+      <c r="LW39" s="5"/>
+      <c r="LX39" s="5"/>
+      <c r="LY39" s="5"/>
+      <c r="LZ39" s="5"/>
+      <c r="MA39" s="5"/>
+      <c r="MB39" s="5"/>
+      <c r="MC39" s="5"/>
+      <c r="MD39" s="5"/>
+      <c r="ME39" s="5"/>
+      <c r="MF39" s="5"/>
+      <c r="MG39" s="5"/>
+      <c r="MH39" s="5"/>
+      <c r="MI39" s="5"/>
+      <c r="MJ39" s="5"/>
+      <c r="MK39" s="5"/>
+      <c r="ML39" s="5"/>
+      <c r="MM39" s="5"/>
+      <c r="MN39" s="5"/>
+      <c r="MO39" s="5"/>
+      <c r="MP39" s="5"/>
+      <c r="MQ39" s="5"/>
+      <c r="MR39" s="5"/>
+      <c r="MS39" s="5"/>
+      <c r="MT39" s="5"/>
+      <c r="MU39" s="5"/>
+      <c r="MV39" s="5"/>
+      <c r="MW39" s="5"/>
+      <c r="MX39" s="5"/>
+      <c r="MY39" s="5"/>
+      <c r="MZ39" s="5"/>
+      <c r="NA39" s="5"/>
+      <c r="NB39" s="5"/>
+      <c r="NC39" s="5"/>
+      <c r="ND39" s="5"/>
+      <c r="NE39" s="5"/>
+      <c r="NF39" s="5"/>
+      <c r="NG39" s="5"/>
+      <c r="NH39" s="5"/>
+      <c r="NI39" s="5"/>
+      <c r="NJ39" s="5"/>
+      <c r="NK39" s="5"/>
+      <c r="NL39" s="5"/>
+      <c r="NM39" s="5"/>
+      <c r="NN39" s="5"/>
+      <c r="NO39" s="5"/>
+      <c r="NP39" s="5"/>
+      <c r="NQ39" s="5"/>
+      <c r="NR39" s="5"/>
+      <c r="NS39" s="5"/>
+      <c r="NT39" s="5"/>
+      <c r="NU39" s="5"/>
+      <c r="NV39" s="5"/>
+      <c r="NW39" s="5"/>
+      <c r="NX39" s="5"/>
+      <c r="NY39" s="5"/>
+      <c r="NZ39" s="5"/>
+      <c r="OA39" s="5"/>
+      <c r="OB39" s="5"/>
+      <c r="OC39" s="5"/>
+      <c r="OD39" s="5"/>
+      <c r="OE39" s="5"/>
+      <c r="OF39" s="5"/>
+      <c r="OG39" s="5"/>
+      <c r="OH39" s="5"/>
+      <c r="OI39" s="5"/>
+      <c r="OJ39" s="5"/>
+      <c r="OK39" s="5"/>
+      <c r="OL39" s="5"/>
+      <c r="OM39" s="5"/>
+      <c r="ON39" s="5"/>
+      <c r="OO39" s="5"/>
+      <c r="OP39" s="5"/>
+      <c r="OQ39" s="5"/>
+      <c r="OR39" s="5"/>
+      <c r="OS39" s="5"/>
+      <c r="OT39" s="5"/>
+      <c r="OU39" s="5"/>
+      <c r="OV39" s="5"/>
+      <c r="OW39" s="5"/>
+      <c r="OX39" s="5"/>
+      <c r="OY39" s="5"/>
+      <c r="OZ39" s="5"/>
+      <c r="PA39" s="5"/>
+      <c r="PB39" s="5"/>
+      <c r="PC39" s="5"/>
+      <c r="PD39" s="5"/>
+      <c r="PE39" s="5"/>
+      <c r="PF39" s="5"/>
+      <c r="PG39" s="5"/>
+      <c r="PH39" s="5"/>
+      <c r="PI39" s="5"/>
+      <c r="PJ39" s="5"/>
+      <c r="PK39" s="5"/>
+      <c r="PL39" s="5"/>
+      <c r="PM39" s="5"/>
+      <c r="PN39" s="5"/>
+      <c r="PO39" s="5"/>
+      <c r="PP39" s="5"/>
+      <c r="PQ39" s="5"/>
+      <c r="PR39" s="5"/>
+      <c r="PS39" s="5"/>
+      <c r="PT39" s="5"/>
+      <c r="PU39" s="5"/>
+      <c r="PV39" s="5"/>
+      <c r="PW39" s="5"/>
+      <c r="PX39" s="5"/>
+      <c r="PY39" s="5"/>
+      <c r="PZ39" s="5"/>
+      <c r="QA39" s="5"/>
+      <c r="QB39" s="5"/>
+      <c r="QC39" s="5"/>
+      <c r="QD39" s="5"/>
+      <c r="QE39" s="5"/>
+      <c r="QF39" s="5"/>
+      <c r="QG39" s="5"/>
+      <c r="QH39" s="5"/>
+      <c r="QI39" s="5"/>
+      <c r="QJ39" s="5"/>
+      <c r="QK39" s="5"/>
+      <c r="QL39" s="5"/>
+      <c r="QM39" s="5"/>
+      <c r="QN39" s="5"/>
+      <c r="QO39" s="5"/>
+      <c r="QP39" s="5"/>
+      <c r="QQ39" s="5"/>
+      <c r="QR39" s="5"/>
+      <c r="QS39" s="5"/>
+      <c r="QT39" s="5"/>
+      <c r="QU39" s="5"/>
+      <c r="QV39" s="5"/>
+      <c r="QW39" s="5"/>
+      <c r="QX39" s="5"/>
+      <c r="QY39" s="5"/>
+      <c r="QZ39" s="5"/>
+      <c r="RA39" s="5"/>
+      <c r="RB39" s="5"/>
+      <c r="RC39" s="5"/>
+      <c r="RD39" s="5"/>
+      <c r="RE39" s="5"/>
+      <c r="RF39" s="5"/>
+      <c r="RG39" s="5"/>
+      <c r="RH39" s="5"/>
+      <c r="RI39" s="5"/>
+      <c r="RJ39" s="5"/>
+      <c r="RK39" s="5"/>
+      <c r="RL39" s="5"/>
+      <c r="RM39" s="5"/>
+      <c r="RN39" s="5"/>
+      <c r="RO39" s="5"/>
+      <c r="RP39" s="5"/>
+      <c r="RQ39" s="5"/>
+      <c r="RR39" s="5"/>
+      <c r="RS39" s="5"/>
+      <c r="RT39" s="5"/>
+      <c r="RU39" s="5"/>
+      <c r="RV39" s="5"/>
+      <c r="RW39" s="5"/>
+      <c r="RX39" s="5"/>
+      <c r="RY39" s="5"/>
+      <c r="RZ39" s="5"/>
+      <c r="SA39" s="5"/>
+      <c r="SB39" s="5"/>
+      <c r="SC39" s="5"/>
+      <c r="SD39" s="5"/>
+      <c r="SE39" s="5"/>
+      <c r="SF39" s="5"/>
+      <c r="SG39" s="5"/>
+      <c r="SH39" s="5"/>
+      <c r="SI39" s="5"/>
+      <c r="SJ39" s="5"/>
+      <c r="SK39" s="5"/>
+      <c r="SL39" s="5"/>
+      <c r="SM39" s="5"/>
+      <c r="SN39" s="5"/>
+      <c r="SO39" s="5"/>
+      <c r="SP39" s="5"/>
+      <c r="SQ39" s="5"/>
+      <c r="SR39" s="5"/>
+      <c r="SS39" s="5"/>
+      <c r="ST39" s="5"/>
+      <c r="SU39" s="5"/>
+      <c r="SV39" s="5"/>
+      <c r="SW39" s="5"/>
+      <c r="SX39" s="5"/>
+      <c r="SY39" s="5"/>
+      <c r="SZ39" s="5"/>
+      <c r="TA39" s="5"/>
+      <c r="TB39" s="5"/>
+      <c r="TC39" s="5"/>
+      <c r="TD39" s="5"/>
+      <c r="TE39" s="5"/>
+      <c r="TF39" s="5"/>
+      <c r="TG39" s="5"/>
+      <c r="TH39" s="5"/>
+      <c r="TI39" s="5"/>
+      <c r="TJ39" s="5"/>
+      <c r="TK39" s="5"/>
+      <c r="TL39" s="5"/>
+      <c r="TM39" s="5"/>
+      <c r="TN39" s="5"/>
+      <c r="TO39" s="5"/>
+      <c r="TP39" s="5"/>
+      <c r="TQ39" s="5"/>
+      <c r="TR39" s="5"/>
+      <c r="TS39" s="5"/>
+      <c r="TT39" s="5"/>
+      <c r="TU39" s="5"/>
+      <c r="TV39" s="5"/>
+      <c r="TW39" s="5"/>
+      <c r="TX39" s="5"/>
+      <c r="TY39" s="5"/>
+      <c r="TZ39" s="5"/>
+      <c r="UA39" s="5"/>
+      <c r="UB39" s="5"/>
+      <c r="UC39" s="5"/>
+      <c r="UD39" s="5"/>
+      <c r="UE39" s="5"/>
+      <c r="UF39" s="5"/>
+      <c r="UG39" s="5"/>
+      <c r="UH39" s="5"/>
+      <c r="UI39" s="5"/>
+      <c r="UJ39" s="5"/>
+      <c r="UK39" s="5"/>
+      <c r="UL39" s="5"/>
+      <c r="UM39" s="5"/>
+      <c r="UN39" s="5"/>
+      <c r="UO39" s="5"/>
+      <c r="UP39" s="5"/>
+      <c r="UQ39" s="5"/>
+      <c r="UR39" s="5"/>
+      <c r="US39" s="5"/>
+      <c r="UT39" s="5"/>
+      <c r="UU39" s="5"/>
+      <c r="UV39" s="5"/>
+      <c r="UW39" s="5"/>
+      <c r="UX39" s="5"/>
+      <c r="UY39" s="5"/>
+      <c r="UZ39" s="5"/>
+      <c r="VA39" s="5"/>
+      <c r="VB39" s="5"/>
+      <c r="VC39" s="5"/>
+      <c r="VD39" s="5"/>
+      <c r="VE39" s="5"/>
+      <c r="VF39" s="5"/>
+      <c r="VG39" s="5"/>
+      <c r="VH39" s="5"/>
+      <c r="VI39" s="5"/>
+      <c r="VJ39" s="5"/>
+      <c r="VK39" s="5"/>
+      <c r="VL39" s="5"/>
+      <c r="VM39" s="5"/>
+      <c r="VN39" s="5"/>
+      <c r="VO39" s="5"/>
+      <c r="VP39" s="5"/>
+      <c r="VQ39" s="5"/>
+      <c r="VR39" s="5"/>
+      <c r="VS39" s="5"/>
+      <c r="VT39" s="5"/>
+      <c r="VU39" s="5"/>
+      <c r="VV39" s="5"/>
+      <c r="VW39" s="5"/>
+      <c r="VX39" s="5"/>
+      <c r="VY39" s="5"/>
+      <c r="VZ39" s="5"/>
+      <c r="WA39" s="5"/>
+      <c r="WB39" s="5"/>
+      <c r="WC39" s="5"/>
+      <c r="WD39" s="5"/>
+      <c r="WE39" s="5"/>
+      <c r="WF39" s="5"/>
+      <c r="WG39" s="5"/>
+      <c r="WH39" s="5"/>
+      <c r="WI39" s="5"/>
+      <c r="WJ39" s="5"/>
+      <c r="WK39" s="5"/>
+      <c r="WL39" s="5"/>
+      <c r="WM39" s="5"/>
+      <c r="WN39" s="5"/>
+      <c r="WO39" s="5"/>
+      <c r="WP39" s="5"/>
+      <c r="WQ39" s="5"/>
+      <c r="WR39" s="5"/>
+      <c r="WS39" s="5"/>
+      <c r="WT39" s="5"/>
+      <c r="WU39" s="5"/>
+      <c r="WV39" s="5"/>
+      <c r="WW39" s="5"/>
+      <c r="WX39" s="5"/>
+      <c r="WY39" s="5"/>
+      <c r="WZ39" s="5"/>
+      <c r="XA39" s="5"/>
+      <c r="XB39" s="5"/>
+      <c r="XC39" s="5"/>
+      <c r="XD39" s="5"/>
+      <c r="XE39" s="5"/>
+      <c r="XF39" s="5"/>
+      <c r="XG39" s="5"/>
+      <c r="XH39" s="5"/>
+      <c r="XI39" s="5"/>
+      <c r="XJ39" s="5"/>
+      <c r="XK39" s="5"/>
+      <c r="XL39" s="5"/>
+      <c r="XM39" s="5"/>
+      <c r="XN39" s="5"/>
+      <c r="XO39" s="5"/>
+      <c r="XP39" s="5"/>
+      <c r="XQ39" s="5"/>
+      <c r="XR39" s="5"/>
+      <c r="XS39" s="5"/>
+      <c r="XT39" s="5"/>
+      <c r="XU39" s="5"/>
+      <c r="XV39" s="5"/>
+      <c r="XW39" s="5"/>
+      <c r="XX39" s="5"/>
+      <c r="XY39" s="5"/>
+      <c r="XZ39" s="5"/>
+      <c r="YA39" s="5"/>
+      <c r="YB39" s="5"/>
+      <c r="YC39" s="5"/>
+      <c r="YD39" s="5"/>
+      <c r="YE39" s="5"/>
+      <c r="YF39" s="5"/>
+      <c r="YG39" s="5"/>
+      <c r="YH39" s="5"/>
+      <c r="YI39" s="5"/>
+      <c r="YJ39" s="5"/>
+      <c r="YK39" s="5"/>
+      <c r="YL39" s="5"/>
+      <c r="YM39" s="5"/>
+      <c r="YN39" s="5"/>
+      <c r="YO39" s="5"/>
+      <c r="YP39" s="5"/>
+      <c r="YQ39" s="5"/>
+      <c r="YR39" s="5"/>
+      <c r="YS39" s="5"/>
+      <c r="YT39" s="5"/>
+      <c r="YU39" s="5"/>
+      <c r="YV39" s="5"/>
+      <c r="YW39" s="5"/>
+      <c r="YX39" s="5"/>
+      <c r="YY39" s="5"/>
+      <c r="YZ39" s="5"/>
+      <c r="ZA39" s="5"/>
+      <c r="ZB39" s="5"/>
+      <c r="ZC39" s="5"/>
+      <c r="ZD39" s="5"/>
+      <c r="ZE39" s="5"/>
+      <c r="ZF39" s="5"/>
+      <c r="ZG39" s="5"/>
+      <c r="ZH39" s="5"/>
+      <c r="ZI39" s="5"/>
+      <c r="ZJ39" s="5"/>
+      <c r="ZK39" s="5"/>
+      <c r="ZL39" s="5"/>
+      <c r="ZM39" s="5"/>
+      <c r="ZN39" s="5"/>
+      <c r="ZO39" s="5"/>
+      <c r="ZP39" s="5"/>
+      <c r="ZQ39" s="5"/>
+      <c r="ZR39" s="5"/>
+      <c r="ZS39" s="5"/>
+      <c r="ZT39" s="5"/>
+      <c r="ZU39" s="5"/>
+      <c r="ZV39" s="5"/>
+      <c r="ZW39" s="5"/>
+      <c r="ZX39" s="5"/>
+      <c r="ZY39" s="5"/>
+      <c r="ZZ39" s="5"/>
+      <c r="AAA39" s="5"/>
+      <c r="AAB39" s="5"/>
+      <c r="AAC39" s="5"/>
+      <c r="AAD39" s="5"/>
+      <c r="AAE39" s="5"/>
+      <c r="AAF39" s="5"/>
+      <c r="AAG39" s="5"/>
+      <c r="AAH39" s="5"/>
+      <c r="AAI39" s="5"/>
+      <c r="AAJ39" s="5"/>
+      <c r="AAK39" s="5"/>
+      <c r="AAL39" s="5"/>
+      <c r="AAM39" s="5"/>
+      <c r="AAN39" s="5"/>
+      <c r="AAO39" s="5"/>
+      <c r="AAP39" s="5"/>
+      <c r="AAQ39" s="5"/>
+      <c r="AAR39" s="5"/>
+      <c r="AAS39" s="5"/>
+      <c r="AAT39" s="5"/>
+      <c r="AAU39" s="5"/>
+      <c r="AAV39" s="5"/>
+      <c r="AAW39" s="5"/>
+      <c r="AAX39" s="5"/>
+      <c r="AAY39" s="5"/>
+      <c r="AAZ39" s="5"/>
+      <c r="ABA39" s="5"/>
+      <c r="ABB39" s="5"/>
+      <c r="ABC39" s="5"/>
+      <c r="ABD39" s="5"/>
+      <c r="ABE39" s="5"/>
+      <c r="ABF39" s="5"/>
+      <c r="ABG39" s="5"/>
+      <c r="ABH39" s="5"/>
+      <c r="ABI39" s="5"/>
+      <c r="ABJ39" s="5"/>
+      <c r="ABK39" s="5"/>
+      <c r="ABL39" s="5"/>
+      <c r="ABM39" s="5"/>
+      <c r="ABN39" s="5"/>
+      <c r="ABO39" s="5"/>
+      <c r="ABP39" s="5"/>
+      <c r="ABQ39" s="5"/>
+      <c r="ABR39" s="5"/>
+      <c r="ABS39" s="5"/>
+      <c r="ABT39" s="5"/>
+      <c r="ABU39" s="5"/>
+      <c r="ABV39" s="5"/>
+      <c r="ABW39" s="5"/>
+      <c r="ABX39" s="5"/>
+      <c r="ABY39" s="5"/>
+      <c r="ABZ39" s="5"/>
+      <c r="ACA39" s="5"/>
+      <c r="ACB39" s="5"/>
+      <c r="ACC39" s="5"/>
+      <c r="ACD39" s="5"/>
+      <c r="ACE39" s="5"/>
+      <c r="ACF39" s="5"/>
+      <c r="ACG39" s="5"/>
+      <c r="ACH39" s="5"/>
+      <c r="ACI39" s="5"/>
+      <c r="ACJ39" s="5"/>
+      <c r="ACK39" s="5"/>
+      <c r="ACL39" s="5"/>
+      <c r="ACM39" s="5"/>
+      <c r="ACN39" s="5"/>
+      <c r="ACO39" s="5"/>
+      <c r="ACP39" s="5"/>
+      <c r="ACQ39" s="5"/>
+      <c r="ACR39" s="5"/>
+      <c r="ACS39" s="5"/>
+      <c r="ACT39" s="5"/>
+      <c r="ACU39" s="5"/>
+      <c r="ACV39" s="5"/>
+      <c r="ACW39" s="5"/>
+      <c r="ACX39" s="5"/>
+      <c r="ACY39" s="5"/>
+      <c r="ACZ39" s="5"/>
+      <c r="ADA39" s="5"/>
+      <c r="ADB39" s="5"/>
+      <c r="ADC39" s="5"/>
+      <c r="ADD39" s="5"/>
+      <c r="ADE39" s="5"/>
+      <c r="ADF39" s="5"/>
+      <c r="ADG39" s="5"/>
+      <c r="ADH39" s="5"/>
+      <c r="ADI39" s="5"/>
+      <c r="ADJ39" s="5"/>
+      <c r="ADK39" s="5"/>
+      <c r="ADL39" s="5"/>
+      <c r="ADM39" s="5"/>
+      <c r="ADN39" s="5"/>
+      <c r="ADO39" s="5"/>
+      <c r="ADP39" s="5"/>
+      <c r="ADQ39" s="5"/>
+      <c r="ADR39" s="5"/>
+      <c r="ADS39" s="5"/>
+      <c r="ADT39" s="5"/>
+      <c r="ADU39" s="5"/>
+      <c r="ADV39" s="5"/>
+      <c r="ADW39" s="5"/>
+      <c r="ADX39" s="5"/>
+      <c r="ADY39" s="5"/>
+      <c r="ADZ39" s="5"/>
+      <c r="AEA39" s="5"/>
+      <c r="AEB39" s="5"/>
+      <c r="AEC39" s="5"/>
+      <c r="AED39" s="5"/>
+      <c r="AEE39" s="5"/>
+      <c r="AEF39" s="5"/>
+      <c r="AEG39" s="5"/>
+      <c r="AEH39" s="5"/>
+      <c r="AEI39" s="5"/>
+      <c r="AEJ39" s="5"/>
+      <c r="AEK39" s="5"/>
+      <c r="AEL39" s="5"/>
+      <c r="AEM39" s="5"/>
+      <c r="AEN39" s="5"/>
+      <c r="AEO39" s="5"/>
+      <c r="AEP39" s="5"/>
+      <c r="AEQ39" s="5"/>
+      <c r="AER39" s="5"/>
+      <c r="AES39" s="5"/>
+      <c r="AET39" s="5"/>
+      <c r="AEU39" s="5"/>
+      <c r="AEV39" s="5"/>
+      <c r="AEW39" s="5"/>
+      <c r="AEX39" s="5"/>
+      <c r="AEY39" s="5"/>
+      <c r="AEZ39" s="5"/>
+      <c r="AFA39" s="5"/>
+      <c r="AFB39" s="5"/>
+      <c r="AFC39" s="5"/>
+      <c r="AFD39" s="5"/>
+      <c r="AFE39" s="5"/>
+      <c r="AFF39" s="5"/>
+      <c r="AFG39" s="5"/>
+      <c r="AFH39" s="5"/>
+      <c r="AFI39" s="5"/>
+      <c r="AFJ39" s="5"/>
+      <c r="AFK39" s="5"/>
+      <c r="AFL39" s="5"/>
+      <c r="AFM39" s="5"/>
+      <c r="AFN39" s="5"/>
+      <c r="AFO39" s="5"/>
+      <c r="AFP39" s="5"/>
+      <c r="AFQ39" s="5"/>
+      <c r="AFR39" s="5"/>
+      <c r="AFS39" s="5"/>
+      <c r="AFT39" s="5"/>
+      <c r="AFU39" s="5"/>
+      <c r="AFV39" s="5"/>
+      <c r="AFW39" s="5"/>
+      <c r="AFX39" s="5"/>
+      <c r="AFY39" s="5"/>
+      <c r="AFZ39" s="5"/>
+      <c r="AGA39" s="5"/>
+      <c r="AGB39" s="5"/>
+      <c r="AGC39" s="5"/>
+      <c r="AGD39" s="5"/>
+      <c r="AGE39" s="5"/>
+      <c r="AGF39" s="5"/>
+      <c r="AGG39" s="5"/>
+      <c r="AGH39" s="5"/>
+      <c r="AGI39" s="5"/>
+      <c r="AGJ39" s="5"/>
+      <c r="AGK39" s="5"/>
+      <c r="AGL39" s="5"/>
+      <c r="AGM39" s="5"/>
+      <c r="AGN39" s="5"/>
+      <c r="AGO39" s="5"/>
+      <c r="AGP39" s="5"/>
+      <c r="AGQ39" s="5"/>
+      <c r="AGR39" s="5"/>
+      <c r="AGS39" s="5"/>
+      <c r="AGT39" s="5"/>
+      <c r="AGU39" s="5"/>
+      <c r="AGV39" s="5"/>
+      <c r="AGW39" s="5"/>
+      <c r="AGX39" s="5"/>
+      <c r="AGY39" s="5"/>
+      <c r="AGZ39" s="5"/>
+      <c r="AHA39" s="5"/>
+      <c r="AHB39" s="5"/>
+      <c r="AHC39" s="5"/>
+      <c r="AHD39" s="5"/>
+      <c r="AHE39" s="5"/>
+      <c r="AHF39" s="5"/>
+      <c r="AHG39" s="5"/>
+      <c r="AHH39" s="5"/>
+      <c r="AHI39" s="5"/>
+      <c r="AHJ39" s="5"/>
+      <c r="AHK39" s="5"/>
+      <c r="AHL39" s="5"/>
+      <c r="AHM39" s="5"/>
+      <c r="AHN39" s="5"/>
+      <c r="AHO39" s="5"/>
+      <c r="AHP39" s="5"/>
+      <c r="AHQ39" s="5"/>
+      <c r="AHR39" s="5"/>
+      <c r="AHS39" s="5"/>
+      <c r="AHT39" s="5"/>
+      <c r="AHU39" s="5"/>
+      <c r="AHV39" s="5"/>
+      <c r="AHW39" s="5"/>
+      <c r="AHX39" s="5"/>
+      <c r="AHY39" s="5"/>
+      <c r="AHZ39" s="5"/>
+      <c r="AIA39" s="5"/>
+      <c r="AIB39" s="5"/>
+      <c r="AIC39" s="5"/>
+      <c r="AID39" s="5"/>
+      <c r="AIE39" s="5"/>
+      <c r="AIF39" s="5"/>
+      <c r="AIG39" s="5"/>
+      <c r="AIH39" s="5"/>
+      <c r="AII39" s="5"/>
+      <c r="AIJ39" s="5"/>
+      <c r="AIK39" s="5"/>
+      <c r="AIL39" s="5"/>
+      <c r="AIM39" s="5"/>
+      <c r="AIN39" s="5"/>
+      <c r="AIO39" s="5"/>
+      <c r="AIP39" s="5"/>
+      <c r="AIQ39" s="5"/>
+      <c r="AIR39" s="5"/>
+      <c r="AIS39" s="5"/>
+      <c r="AIT39" s="5"/>
+      <c r="AIU39" s="5"/>
+      <c r="AIV39" s="5"/>
+      <c r="AIW39" s="5"/>
+      <c r="AIX39" s="5"/>
+      <c r="AIY39" s="5"/>
+      <c r="AIZ39" s="5"/>
+      <c r="AJA39" s="5"/>
+      <c r="AJB39" s="5"/>
+      <c r="AJC39" s="5"/>
+      <c r="AJD39" s="5"/>
+      <c r="AJE39" s="5"/>
+      <c r="AJF39" s="5"/>
+      <c r="AJG39" s="5"/>
+      <c r="AJH39" s="5"/>
+      <c r="AJI39" s="5"/>
+      <c r="AJJ39" s="5"/>
+      <c r="AJK39" s="5"/>
+      <c r="AJL39" s="5"/>
+      <c r="AJM39" s="5"/>
+      <c r="AJN39" s="5"/>
+      <c r="AJO39" s="5"/>
+      <c r="AJP39" s="5"/>
+      <c r="AJQ39" s="5"/>
+      <c r="AJR39" s="5"/>
+      <c r="AJS39" s="5"/>
+      <c r="AJT39" s="5"/>
+      <c r="AJU39" s="5"/>
+      <c r="AJV39" s="5"/>
+      <c r="AJW39" s="5"/>
+      <c r="AJX39" s="5"/>
+      <c r="AJY39" s="5"/>
+      <c r="AJZ39" s="5"/>
+      <c r="AKA39" s="5"/>
+      <c r="AKB39" s="5"/>
+      <c r="AKC39" s="5"/>
+      <c r="AKD39" s="5"/>
+      <c r="AKE39" s="5"/>
+      <c r="AKF39" s="5"/>
+      <c r="AKG39" s="5"/>
+      <c r="AKH39" s="5"/>
+      <c r="AKI39" s="5"/>
+      <c r="AKJ39" s="5"/>
+      <c r="AKK39" s="5"/>
+      <c r="AKL39" s="5"/>
+      <c r="AKM39" s="5"/>
+      <c r="AKN39" s="5"/>
+      <c r="AKO39" s="5"/>
+      <c r="AKP39" s="5"/>
+      <c r="AKQ39" s="5"/>
+      <c r="AKR39" s="5"/>
+      <c r="AKS39" s="5"/>
+      <c r="AKT39" s="5"/>
+      <c r="AKU39" s="5"/>
+      <c r="AKV39" s="5"/>
+      <c r="AKW39" s="5"/>
+      <c r="AKX39" s="5"/>
+      <c r="AKY39" s="5"/>
+      <c r="AKZ39" s="5"/>
+      <c r="ALA39" s="5"/>
+      <c r="ALB39" s="5"/>
+      <c r="ALC39" s="5"/>
+      <c r="ALD39" s="5"/>
+      <c r="ALE39" s="5"/>
+      <c r="ALF39" s="5"/>
+      <c r="ALG39" s="5"/>
+      <c r="ALH39" s="5"/>
+      <c r="ALI39" s="5"/>
+      <c r="ALJ39" s="5"/>
+      <c r="ALK39" s="5"/>
+      <c r="ALL39" s="5"/>
+      <c r="ALM39" s="5"/>
+      <c r="ALN39" s="5"/>
+      <c r="ALO39" s="5"/>
+      <c r="ALP39" s="5"/>
+      <c r="ALQ39" s="5"/>
+      <c r="ALR39" s="5"/>
+      <c r="ALS39" s="5"/>
+      <c r="ALT39" s="5"/>
+      <c r="ALU39" s="5"/>
+      <c r="ALV39" s="5"/>
+      <c r="ALW39" s="5"/>
+      <c r="ALX39" s="5"/>
+      <c r="ALY39" s="5"/>
+      <c r="ALZ39" s="5"/>
+      <c r="AMA39" s="5"/>
+      <c r="AMB39" s="5"/>
+      <c r="AMC39" s="5"/>
+      <c r="AMD39" s="5"/>
+      <c r="AME39" s="5"/>
+      <c r="AMF39" s="5"/>
+      <c r="AMG39" s="5"/>
+      <c r="AMH39" s="5"/>
+      <c r="AMI39" s="5"/>
+      <c r="AMJ39" s="5"/>
+      <c r="AMK39" s="5"/>
+      <c r="AML39" s="5"/>
+      <c r="AMM39" s="5"/>
+      <c r="AMN39" s="5"/>
+      <c r="AMO39" s="5"/>
+      <c r="AMP39" s="5"/>
+      <c r="AMQ39" s="5"/>
+      <c r="AMR39" s="5"/>
+      <c r="AMS39" s="5"/>
+      <c r="AMT39" s="5"/>
+      <c r="AMU39" s="5"/>
+      <c r="AMV39" s="5"/>
+      <c r="AMW39" s="5"/>
+      <c r="AMX39" s="5"/>
+      <c r="AMY39" s="5"/>
+      <c r="AMZ39" s="5"/>
+      <c r="ANA39" s="5"/>
+      <c r="ANB39" s="5"/>
+      <c r="ANC39" s="5"/>
+      <c r="AND39" s="5"/>
+      <c r="ANE39" s="5"/>
+      <c r="ANF39" s="5"/>
+      <c r="ANG39" s="5"/>
+      <c r="ANH39" s="5"/>
+      <c r="ANI39" s="5"/>
+      <c r="ANJ39" s="5"/>
+      <c r="ANK39" s="5"/>
+      <c r="ANL39" s="5"/>
+      <c r="ANM39" s="5"/>
+      <c r="ANN39" s="5"/>
+      <c r="ANO39" s="5"/>
+      <c r="ANP39" s="5"/>
+      <c r="ANQ39" s="5"/>
+      <c r="ANR39" s="5"/>
+      <c r="ANS39" s="5"/>
+      <c r="ANT39" s="5"/>
+      <c r="ANU39" s="5"/>
+      <c r="ANV39" s="5"/>
+      <c r="ANW39" s="5"/>
+      <c r="ANX39" s="5"/>
+      <c r="ANY39" s="5"/>
+      <c r="ANZ39" s="5"/>
+      <c r="AOA39" s="5"/>
+      <c r="AOB39" s="5"/>
+      <c r="AOC39" s="5"/>
+      <c r="AOD39" s="5"/>
+      <c r="AOE39" s="5"/>
+      <c r="AOF39" s="5"/>
+      <c r="AOG39" s="5"/>
+      <c r="AOH39" s="5"/>
+      <c r="AOI39" s="5"/>
+      <c r="AOJ39" s="5"/>
+      <c r="AOK39" s="5"/>
+      <c r="AOL39" s="5"/>
+      <c r="AOM39" s="5"/>
+      <c r="AON39" s="5"/>
+      <c r="AOO39" s="5"/>
+      <c r="AOP39" s="5"/>
+      <c r="AOQ39" s="5"/>
+      <c r="AOR39" s="5"/>
+      <c r="AOS39" s="5"/>
+      <c r="AOT39" s="5"/>
+      <c r="AOU39" s="5"/>
+      <c r="AOV39" s="5"/>
+      <c r="AOW39" s="5"/>
+      <c r="AOX39" s="5"/>
+      <c r="AOY39" s="5"/>
+      <c r="AOZ39" s="5"/>
+      <c r="APA39" s="5"/>
+      <c r="APB39" s="5"/>
+      <c r="APC39" s="5"/>
+      <c r="APD39" s="5"/>
+      <c r="APE39" s="5"/>
+      <c r="APF39" s="5"/>
+      <c r="APG39" s="5"/>
+      <c r="APH39" s="5"/>
+      <c r="API39" s="5"/>
+      <c r="APJ39" s="5"/>
+      <c r="APK39" s="5"/>
+      <c r="APL39" s="5"/>
+      <c r="APM39" s="5"/>
+      <c r="APN39" s="5"/>
+      <c r="APO39" s="5"/>
+      <c r="APP39" s="5"/>
+      <c r="APQ39" s="5"/>
+      <c r="APR39" s="5"/>
+      <c r="APS39" s="5"/>
+      <c r="APT39" s="5"/>
+      <c r="APU39" s="5"/>
+      <c r="APV39" s="5"/>
+      <c r="APW39" s="5"/>
+      <c r="APX39" s="5"/>
+      <c r="APY39" s="5"/>
+      <c r="APZ39" s="5"/>
+      <c r="AQA39" s="5"/>
+      <c r="AQB39" s="5"/>
+      <c r="AQC39" s="5"/>
+      <c r="AQD39" s="5"/>
+      <c r="AQE39" s="5"/>
+      <c r="AQF39" s="5"/>
+      <c r="AQG39" s="5"/>
+      <c r="AQH39" s="5"/>
+      <c r="AQI39" s="5"/>
+      <c r="AQJ39" s="5"/>
+      <c r="AQK39" s="5"/>
+      <c r="AQL39" s="5"/>
+      <c r="AQM39" s="5"/>
+      <c r="AQN39" s="5"/>
+      <c r="AQO39" s="5"/>
+      <c r="AQP39" s="5"/>
+      <c r="AQQ39" s="5"/>
+      <c r="AQR39" s="5"/>
+      <c r="AQS39" s="5"/>
+      <c r="AQT39" s="5"/>
+      <c r="AQU39" s="5"/>
+      <c r="AQV39" s="5"/>
+      <c r="AQW39" s="5"/>
+      <c r="AQX39" s="5"/>
+      <c r="AQY39" s="5"/>
+      <c r="AQZ39" s="5"/>
+      <c r="ARA39" s="5"/>
+      <c r="ARB39" s="5"/>
+      <c r="ARC39" s="5"/>
+      <c r="ARD39" s="5"/>
+      <c r="ARE39" s="5"/>
+      <c r="ARF39" s="5"/>
+      <c r="ARG39" s="5"/>
+      <c r="ARH39" s="5"/>
+      <c r="ARI39" s="5"/>
+      <c r="ARJ39" s="5"/>
+      <c r="ARK39" s="5"/>
+      <c r="ARL39" s="5"/>
+      <c r="ARM39" s="5"/>
+      <c r="ARN39" s="5"/>
+      <c r="ARO39" s="5"/>
+      <c r="ARP39" s="5"/>
+      <c r="ARQ39" s="5"/>
+      <c r="ARR39" s="5"/>
+      <c r="ARS39" s="5"/>
+      <c r="ART39" s="5"/>
+      <c r="ARU39" s="5"/>
+    </row>
+    <row r="40" spans="1:1165">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
+      <c r="AI40" s="5"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="5"/>
+      <c r="AS40" s="5"/>
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="5"/>
+      <c r="AV40" s="5"/>
+      <c r="AW40" s="5"/>
+      <c r="AX40" s="5"/>
+      <c r="AY40" s="5"/>
+      <c r="AZ40" s="5"/>
+      <c r="BA40" s="5"/>
+      <c r="BB40" s="5"/>
+      <c r="BC40" s="5"/>
+      <c r="BD40" s="5"/>
+      <c r="BE40" s="5"/>
+      <c r="BF40" s="5"/>
+      <c r="BG40" s="5"/>
+      <c r="BH40" s="5"/>
+      <c r="BI40" s="5"/>
+      <c r="BJ40" s="5"/>
+      <c r="BK40" s="5"/>
+      <c r="BL40" s="5"/>
+      <c r="BM40" s="5"/>
+      <c r="BN40" s="5"/>
+      <c r="BO40" s="5"/>
+      <c r="BP40" s="5"/>
+      <c r="BQ40" s="5"/>
+      <c r="BR40" s="5"/>
+      <c r="BS40" s="5"/>
+      <c r="BT40" s="5"/>
+      <c r="BU40" s="5"/>
+      <c r="BV40" s="5"/>
+      <c r="BW40" s="5"/>
+      <c r="BX40" s="5"/>
+      <c r="BY40" s="5"/>
+      <c r="BZ40" s="5"/>
+      <c r="CA40" s="5"/>
+      <c r="CB40" s="5"/>
+      <c r="CC40" s="5"/>
+      <c r="CD40" s="5"/>
+      <c r="CE40" s="5"/>
+      <c r="CF40" s="5"/>
+      <c r="CG40" s="5"/>
+      <c r="CH40" s="5"/>
+      <c r="CI40" s="5"/>
+      <c r="CJ40" s="5"/>
+      <c r="CK40" s="5"/>
+      <c r="CL40" s="5"/>
+      <c r="CM40" s="5"/>
+      <c r="CN40" s="5"/>
+      <c r="CO40" s="5"/>
+      <c r="CP40" s="5"/>
+      <c r="CQ40" s="5"/>
+      <c r="CR40" s="5"/>
+      <c r="CS40" s="5"/>
+      <c r="CT40" s="5"/>
+      <c r="CU40" s="5"/>
+      <c r="CV40" s="5"/>
+      <c r="CW40" s="5"/>
+      <c r="CX40" s="5"/>
+      <c r="CY40" s="5"/>
+      <c r="CZ40" s="5"/>
+      <c r="DA40" s="5"/>
+      <c r="DB40" s="5"/>
+      <c r="DC40" s="5"/>
+      <c r="DD40" s="5"/>
+      <c r="DE40" s="5"/>
+      <c r="DF40" s="5"/>
+      <c r="DG40" s="5"/>
+      <c r="DH40" s="5"/>
+      <c r="DI40" s="5"/>
+      <c r="DJ40" s="5"/>
+      <c r="DK40" s="5"/>
+      <c r="DL40" s="5"/>
+      <c r="DM40" s="5"/>
+      <c r="DN40" s="5"/>
+      <c r="DO40" s="5"/>
+      <c r="DP40" s="5"/>
+      <c r="DQ40" s="5"/>
+      <c r="DR40" s="5"/>
+      <c r="DS40" s="5"/>
+      <c r="DT40" s="5"/>
+      <c r="DU40" s="5"/>
+      <c r="DV40" s="5"/>
+      <c r="DW40" s="5"/>
+      <c r="DX40" s="5"/>
+      <c r="DY40" s="5"/>
+      <c r="DZ40" s="5"/>
+      <c r="EA40" s="5"/>
+      <c r="EB40" s="5"/>
+      <c r="EC40" s="5"/>
+      <c r="ED40" s="5"/>
+      <c r="EE40" s="5"/>
+      <c r="EF40" s="5"/>
+      <c r="EG40" s="5"/>
+      <c r="EH40" s="5"/>
+      <c r="EI40" s="5"/>
+      <c r="EJ40" s="5"/>
+      <c r="EK40" s="5"/>
+      <c r="EL40" s="5"/>
+      <c r="EM40" s="5"/>
+      <c r="EN40" s="5"/>
+      <c r="EO40" s="5"/>
+      <c r="EP40" s="5"/>
+      <c r="EQ40" s="5"/>
+      <c r="ER40" s="5"/>
+      <c r="ES40" s="5"/>
+      <c r="ET40" s="5"/>
+      <c r="EU40" s="5"/>
+      <c r="EV40" s="5"/>
+      <c r="EW40" s="5"/>
+      <c r="EX40" s="5"/>
+      <c r="EY40" s="5"/>
+      <c r="EZ40" s="5"/>
+      <c r="FA40" s="5"/>
+      <c r="FB40" s="5"/>
+      <c r="FC40" s="5"/>
+      <c r="FD40" s="5"/>
+      <c r="FE40" s="5"/>
+      <c r="FF40" s="5"/>
+      <c r="FG40" s="5"/>
+      <c r="FH40" s="5"/>
+      <c r="FI40" s="5"/>
+      <c r="FJ40" s="5"/>
+      <c r="FK40" s="5"/>
+      <c r="FL40" s="5"/>
+      <c r="FM40" s="5"/>
+      <c r="FN40" s="5"/>
+      <c r="FO40" s="5"/>
+      <c r="FP40" s="5"/>
+      <c r="FQ40" s="5"/>
+      <c r="FR40" s="5"/>
+      <c r="FS40" s="5"/>
+      <c r="FT40" s="5"/>
+      <c r="FU40" s="5"/>
+      <c r="FV40" s="5"/>
+      <c r="FW40" s="5"/>
+      <c r="FX40" s="5"/>
+      <c r="FY40" s="5"/>
+      <c r="FZ40" s="5"/>
+      <c r="GA40" s="5"/>
+      <c r="GB40" s="5"/>
+      <c r="GC40" s="5"/>
+      <c r="GD40" s="5"/>
+      <c r="GE40" s="5"/>
+      <c r="GF40" s="5"/>
+      <c r="GG40" s="5"/>
+      <c r="GH40" s="5"/>
+      <c r="GI40" s="5"/>
+      <c r="GJ40" s="5"/>
+      <c r="GK40" s="5"/>
+      <c r="GL40" s="5"/>
+      <c r="GM40" s="5"/>
+      <c r="GN40" s="5"/>
+      <c r="GO40" s="5"/>
+      <c r="GP40" s="5"/>
+      <c r="GQ40" s="5"/>
+      <c r="GR40" s="5"/>
+      <c r="GS40" s="5"/>
+      <c r="GT40" s="5"/>
+      <c r="GU40" s="5"/>
+      <c r="GV40" s="5"/>
+      <c r="GW40" s="5"/>
+      <c r="GX40" s="5"/>
+      <c r="GY40" s="5"/>
+      <c r="GZ40" s="5"/>
+      <c r="HA40" s="5"/>
+      <c r="HB40" s="5"/>
+      <c r="HC40" s="5"/>
+      <c r="HD40" s="5"/>
+      <c r="HE40" s="5"/>
+      <c r="HF40" s="5"/>
+      <c r="HG40" s="5"/>
+      <c r="HH40" s="5"/>
+      <c r="HI40" s="5"/>
+      <c r="HJ40" s="5"/>
+      <c r="HK40" s="5"/>
+      <c r="HL40" s="5"/>
+      <c r="HM40" s="5"/>
+      <c r="HN40" s="5"/>
+      <c r="HO40" s="5"/>
+      <c r="HP40" s="5"/>
+      <c r="HQ40" s="5"/>
+      <c r="HR40" s="5"/>
+      <c r="HS40" s="5"/>
+      <c r="HT40" s="5"/>
+      <c r="HU40" s="5"/>
+      <c r="HV40" s="5"/>
+      <c r="HW40" s="5"/>
+      <c r="HX40" s="5"/>
+      <c r="HY40" s="5"/>
+      <c r="HZ40" s="5"/>
+      <c r="IA40" s="5"/>
+      <c r="IB40" s="5"/>
+      <c r="IC40" s="5"/>
+      <c r="ID40" s="5"/>
+      <c r="IE40" s="5"/>
+      <c r="IF40" s="5"/>
+      <c r="IG40" s="5"/>
+      <c r="IH40" s="5"/>
+      <c r="II40" s="5"/>
+      <c r="IJ40" s="5"/>
+      <c r="IK40" s="5"/>
+      <c r="IL40" s="5"/>
+      <c r="IM40" s="5"/>
+      <c r="IN40" s="5"/>
+      <c r="IO40" s="5"/>
+      <c r="IP40" s="5"/>
+      <c r="IQ40" s="5"/>
+      <c r="IR40" s="5"/>
+      <c r="IS40" s="5"/>
+      <c r="IT40" s="5"/>
+      <c r="IU40" s="5"/>
+      <c r="IV40" s="5"/>
+      <c r="IW40" s="5"/>
+      <c r="IX40" s="5"/>
+      <c r="IY40" s="5"/>
+      <c r="IZ40" s="5"/>
+      <c r="JA40" s="5"/>
+      <c r="JB40" s="5"/>
+      <c r="JC40" s="5"/>
+      <c r="JD40" s="5"/>
+      <c r="JE40" s="5"/>
+      <c r="JF40" s="5"/>
+      <c r="JG40" s="5"/>
+      <c r="JH40" s="5"/>
+      <c r="JI40" s="5"/>
+      <c r="JJ40" s="5"/>
+      <c r="JK40" s="5"/>
+      <c r="JL40" s="5"/>
+      <c r="JM40" s="5"/>
+      <c r="JN40" s="5"/>
+      <c r="JO40" s="5"/>
+      <c r="JP40" s="5"/>
+      <c r="JQ40" s="5"/>
+      <c r="JR40" s="5"/>
+      <c r="JS40" s="5"/>
+      <c r="JT40" s="5"/>
+      <c r="JU40" s="5"/>
+      <c r="JV40" s="5"/>
+      <c r="JW40" s="5"/>
+      <c r="JX40" s="5"/>
+      <c r="JY40" s="5"/>
+      <c r="JZ40" s="5"/>
+      <c r="KA40" s="5"/>
+      <c r="KB40" s="5"/>
+      <c r="KC40" s="5"/>
+      <c r="KD40" s="5"/>
+      <c r="KE40" s="5"/>
+      <c r="KF40" s="5"/>
+      <c r="KG40" s="5"/>
+      <c r="KH40" s="5"/>
+      <c r="KI40" s="5"/>
+      <c r="KJ40" s="5"/>
+      <c r="KK40" s="5"/>
+      <c r="KL40" s="5"/>
+      <c r="KM40" s="5"/>
+      <c r="KN40" s="5"/>
+      <c r="KO40" s="5"/>
+      <c r="KP40" s="5"/>
+      <c r="KQ40" s="5"/>
+      <c r="KR40" s="5"/>
+      <c r="KS40" s="5"/>
+      <c r="KT40" s="5"/>
+      <c r="KU40" s="5"/>
+      <c r="KV40" s="5"/>
+      <c r="KW40" s="5"/>
+      <c r="KX40" s="5"/>
+      <c r="KY40" s="5"/>
+      <c r="KZ40" s="5"/>
+      <c r="LA40" s="5"/>
+      <c r="LB40" s="5"/>
+      <c r="LC40" s="5"/>
+      <c r="LD40" s="5"/>
+      <c r="LE40" s="5"/>
+      <c r="LF40" s="5"/>
+      <c r="LG40" s="5"/>
+      <c r="LH40" s="5"/>
+      <c r="LI40" s="5"/>
+      <c r="LJ40" s="5"/>
+      <c r="LK40" s="5"/>
+      <c r="LL40" s="5"/>
+      <c r="LM40" s="5"/>
+      <c r="LN40" s="5"/>
+      <c r="LO40" s="5"/>
+      <c r="LP40" s="5"/>
+      <c r="LQ40" s="5"/>
+      <c r="LR40" s="5"/>
+      <c r="LS40" s="5"/>
+      <c r="LT40" s="5"/>
+      <c r="LU40" s="5"/>
+      <c r="LV40" s="5"/>
+      <c r="LW40" s="5"/>
+      <c r="LX40" s="5"/>
+      <c r="LY40" s="5"/>
+      <c r="LZ40" s="5"/>
+      <c r="MA40" s="5"/>
+      <c r="MB40" s="5"/>
+      <c r="MC40" s="5"/>
+      <c r="MD40" s="5"/>
+      <c r="ME40" s="5"/>
+      <c r="MF40" s="5"/>
+      <c r="MG40" s="5"/>
+      <c r="MH40" s="5"/>
+      <c r="MI40" s="5"/>
+      <c r="MJ40" s="5"/>
+      <c r="MK40" s="5"/>
+      <c r="ML40" s="5"/>
+      <c r="MM40" s="5"/>
+      <c r="MN40" s="5"/>
+      <c r="MO40" s="5"/>
+      <c r="MP40" s="5"/>
+      <c r="MQ40" s="5"/>
+      <c r="MR40" s="5"/>
+      <c r="MS40" s="5"/>
+      <c r="MT40" s="5"/>
+      <c r="MU40" s="5"/>
+      <c r="MV40" s="5"/>
+      <c r="MW40" s="5"/>
+      <c r="MX40" s="5"/>
+      <c r="MY40" s="5"/>
+      <c r="MZ40" s="5"/>
+      <c r="NA40" s="5"/>
+      <c r="NB40" s="5"/>
+      <c r="NC40" s="5"/>
+      <c r="ND40" s="5"/>
+      <c r="NE40" s="5"/>
+      <c r="NF40" s="5"/>
+      <c r="NG40" s="5"/>
+      <c r="NH40" s="5"/>
+      <c r="NI40" s="5"/>
+      <c r="NJ40" s="5"/>
+      <c r="NK40" s="5"/>
+      <c r="NL40" s="5"/>
+      <c r="NM40" s="5"/>
+      <c r="NN40" s="5"/>
+      <c r="NO40" s="5"/>
+      <c r="NP40" s="5"/>
+      <c r="NQ40" s="5"/>
+      <c r="NR40" s="5"/>
+      <c r="NS40" s="5"/>
+      <c r="NT40" s="5"/>
+      <c r="NU40" s="5"/>
+      <c r="NV40" s="5"/>
+      <c r="NW40" s="5"/>
+      <c r="NX40" s="5"/>
+      <c r="NY40" s="5"/>
+      <c r="NZ40" s="5"/>
+      <c r="OA40" s="5"/>
+      <c r="OB40" s="5"/>
+      <c r="OC40" s="5"/>
+      <c r="OD40" s="5"/>
+      <c r="OE40" s="5"/>
+      <c r="OF40" s="5"/>
+      <c r="OG40" s="5"/>
+      <c r="OH40" s="5"/>
+      <c r="OI40" s="5"/>
+      <c r="OJ40" s="5"/>
+      <c r="OK40" s="5"/>
+      <c r="OL40" s="5"/>
+      <c r="OM40" s="5"/>
+      <c r="ON40" s="5"/>
+      <c r="OO40" s="5"/>
+      <c r="OP40" s="5"/>
+      <c r="OQ40" s="5"/>
+      <c r="OR40" s="5"/>
+      <c r="OS40" s="5"/>
+      <c r="OT40" s="5"/>
+      <c r="OU40" s="5"/>
+      <c r="OV40" s="5"/>
+      <c r="OW40" s="5"/>
+      <c r="OX40" s="5"/>
+      <c r="OY40" s="5"/>
+      <c r="OZ40" s="5"/>
+      <c r="PA40" s="5"/>
+      <c r="PB40" s="5"/>
+      <c r="PC40" s="5"/>
+      <c r="PD40" s="5"/>
+      <c r="PE40" s="5"/>
+      <c r="PF40" s="5"/>
+      <c r="PG40" s="5"/>
+      <c r="PH40" s="5"/>
+      <c r="PI40" s="5"/>
+      <c r="PJ40" s="5"/>
+      <c r="PK40" s="5"/>
+      <c r="PL40" s="5"/>
+      <c r="PM40" s="5"/>
+      <c r="PN40" s="5"/>
+      <c r="PO40" s="5"/>
+      <c r="PP40" s="5"/>
+      <c r="PQ40" s="5"/>
+      <c r="PR40" s="5"/>
+      <c r="PS40" s="5"/>
+      <c r="PT40" s="5"/>
+      <c r="PU40" s="5"/>
+      <c r="PV40" s="5"/>
+      <c r="PW40" s="5"/>
+      <c r="PX40" s="5"/>
+      <c r="PY40" s="5"/>
+      <c r="PZ40" s="5"/>
+      <c r="QA40" s="5"/>
+      <c r="QB40" s="5"/>
+      <c r="QC40" s="5"/>
+      <c r="QD40" s="5"/>
+      <c r="QE40" s="5"/>
+      <c r="QF40" s="5"/>
+      <c r="QG40" s="5"/>
+      <c r="QH40" s="5"/>
+      <c r="QI40" s="5"/>
+      <c r="QJ40" s="5"/>
+      <c r="QK40" s="5"/>
+      <c r="QL40" s="5"/>
+      <c r="QM40" s="5"/>
+      <c r="QN40" s="5"/>
+      <c r="QO40" s="5"/>
+      <c r="QP40" s="5"/>
+      <c r="QQ40" s="5"/>
+      <c r="QR40" s="5"/>
+      <c r="QS40" s="5"/>
+      <c r="QT40" s="5"/>
+      <c r="QU40" s="5"/>
+      <c r="QV40" s="5"/>
+      <c r="QW40" s="5"/>
+      <c r="QX40" s="5"/>
+      <c r="QY40" s="5"/>
+      <c r="QZ40" s="5"/>
+      <c r="RA40" s="5"/>
+      <c r="RB40" s="5"/>
+      <c r="RC40" s="5"/>
+      <c r="RD40" s="5"/>
+      <c r="RE40" s="5"/>
+      <c r="RF40" s="5"/>
+      <c r="RG40" s="5"/>
+      <c r="RH40" s="5"/>
+      <c r="RI40" s="5"/>
+      <c r="RJ40" s="5"/>
+      <c r="RK40" s="5"/>
+      <c r="RL40" s="5"/>
+      <c r="RM40" s="5"/>
+      <c r="RN40" s="5"/>
+      <c r="RO40" s="5"/>
+      <c r="RP40" s="5"/>
+      <c r="RQ40" s="5"/>
+      <c r="RR40" s="5"/>
+      <c r="RS40" s="5"/>
+      <c r="RT40" s="5"/>
+      <c r="RU40" s="5"/>
+      <c r="RV40" s="5"/>
+      <c r="RW40" s="5"/>
+      <c r="RX40" s="5"/>
+      <c r="RY40" s="5"/>
+      <c r="RZ40" s="5"/>
+      <c r="SA40" s="5"/>
+      <c r="SB40" s="5"/>
+      <c r="SC40" s="5"/>
+      <c r="SD40" s="5"/>
+      <c r="SE40" s="5"/>
+      <c r="SF40" s="5"/>
+      <c r="SG40" s="5"/>
+      <c r="SH40" s="5"/>
+      <c r="SI40" s="5"/>
+      <c r="SJ40" s="5"/>
+      <c r="SK40" s="5"/>
+      <c r="SL40" s="5"/>
+      <c r="SM40" s="5"/>
+      <c r="SN40" s="5"/>
+      <c r="SO40" s="5"/>
+      <c r="SP40" s="5"/>
+      <c r="SQ40" s="5"/>
+      <c r="SR40" s="5"/>
+      <c r="SS40" s="5"/>
+      <c r="ST40" s="5"/>
+      <c r="SU40" s="5"/>
+      <c r="SV40" s="5"/>
+      <c r="SW40" s="5"/>
+      <c r="SX40" s="5"/>
+      <c r="SY40" s="5"/>
+      <c r="SZ40" s="5"/>
+      <c r="TA40" s="5"/>
+      <c r="TB40" s="5"/>
+      <c r="TC40" s="5"/>
+      <c r="TD40" s="5"/>
+      <c r="TE40" s="5"/>
+      <c r="TF40" s="5"/>
+      <c r="TG40" s="5"/>
+      <c r="TH40" s="5"/>
+      <c r="TI40" s="5"/>
+      <c r="TJ40" s="5"/>
+      <c r="TK40" s="5"/>
+      <c r="TL40" s="5"/>
+      <c r="TM40" s="5"/>
+      <c r="TN40" s="5"/>
+      <c r="TO40" s="5"/>
+      <c r="TP40" s="5"/>
+      <c r="TQ40" s="5"/>
+      <c r="TR40" s="5"/>
+      <c r="TS40" s="5"/>
+      <c r="TT40" s="5"/>
+      <c r="TU40" s="5"/>
+      <c r="TV40" s="5"/>
+      <c r="TW40" s="5"/>
+      <c r="TX40" s="5"/>
+      <c r="TY40" s="5"/>
+      <c r="TZ40" s="5"/>
+      <c r="UA40" s="5"/>
+      <c r="UB40" s="5"/>
+      <c r="UC40" s="5"/>
+      <c r="UD40" s="5"/>
+      <c r="UE40" s="5"/>
+      <c r="UF40" s="5"/>
+      <c r="UG40" s="5"/>
+      <c r="UH40" s="5"/>
+      <c r="UI40" s="5"/>
+      <c r="UJ40" s="5"/>
+      <c r="UK40" s="5"/>
+      <c r="UL40" s="5"/>
+      <c r="UM40" s="5"/>
+      <c r="UN40" s="5"/>
+      <c r="UO40" s="5"/>
+      <c r="UP40" s="5"/>
+      <c r="UQ40" s="5"/>
+      <c r="UR40" s="5"/>
+      <c r="US40" s="5"/>
+      <c r="UT40" s="5"/>
+      <c r="UU40" s="5"/>
+      <c r="UV40" s="5"/>
+      <c r="UW40" s="5"/>
+      <c r="UX40" s="5"/>
+      <c r="UY40" s="5"/>
+      <c r="UZ40" s="5"/>
+      <c r="VA40" s="5"/>
+      <c r="VB40" s="5"/>
+      <c r="VC40" s="5"/>
+      <c r="VD40" s="5"/>
+      <c r="VE40" s="5"/>
+      <c r="VF40" s="5"/>
+      <c r="VG40" s="5"/>
+      <c r="VH40" s="5"/>
+      <c r="VI40" s="5"/>
+      <c r="VJ40" s="5"/>
+      <c r="VK40" s="5"/>
+      <c r="VL40" s="5"/>
+      <c r="VM40" s="5"/>
+      <c r="VN40" s="5"/>
+      <c r="VO40" s="5"/>
+      <c r="VP40" s="5"/>
+      <c r="VQ40" s="5"/>
+      <c r="VR40" s="5"/>
+      <c r="VS40" s="5"/>
+      <c r="VT40" s="5"/>
+      <c r="VU40" s="5"/>
+      <c r="VV40" s="5"/>
+      <c r="VW40" s="5"/>
+      <c r="VX40" s="5"/>
+      <c r="VY40" s="5"/>
+      <c r="VZ40" s="5"/>
+      <c r="WA40" s="5"/>
+      <c r="WB40" s="5"/>
+      <c r="WC40" s="5"/>
+      <c r="WD40" s="5"/>
+      <c r="WE40" s="5"/>
+      <c r="WF40" s="5"/>
+      <c r="WG40" s="5"/>
+      <c r="WH40" s="5"/>
+      <c r="WI40" s="5"/>
+      <c r="WJ40" s="5"/>
+      <c r="WK40" s="5"/>
+      <c r="WL40" s="5"/>
+      <c r="WM40" s="5"/>
+      <c r="WN40" s="5"/>
+      <c r="WO40" s="5"/>
+      <c r="WP40" s="5"/>
+      <c r="WQ40" s="5"/>
+      <c r="WR40" s="5"/>
+      <c r="WS40" s="5"/>
+      <c r="WT40" s="5"/>
+      <c r="WU40" s="5"/>
+      <c r="WV40" s="5"/>
+      <c r="WW40" s="5"/>
+      <c r="WX40" s="5"/>
+      <c r="WY40" s="5"/>
+      <c r="WZ40" s="5"/>
+      <c r="XA40" s="5"/>
+      <c r="XB40" s="5"/>
+      <c r="XC40" s="5"/>
+      <c r="XD40" s="5"/>
+      <c r="XE40" s="5"/>
+      <c r="XF40" s="5"/>
+      <c r="XG40" s="5"/>
+      <c r="XH40" s="5"/>
+      <c r="XI40" s="5"/>
+      <c r="XJ40" s="5"/>
+      <c r="XK40" s="5"/>
+      <c r="XL40" s="5"/>
+      <c r="XM40" s="5"/>
+      <c r="XN40" s="5"/>
+      <c r="XO40" s="5"/>
+      <c r="XP40" s="5"/>
+      <c r="XQ40" s="5"/>
+      <c r="XR40" s="5"/>
+      <c r="XS40" s="5"/>
+      <c r="XT40" s="5"/>
+      <c r="XU40" s="5"/>
+      <c r="XV40" s="5"/>
+      <c r="XW40" s="5"/>
+      <c r="XX40" s="5"/>
+      <c r="XY40" s="5"/>
+      <c r="XZ40" s="5"/>
+      <c r="YA40" s="5"/>
+      <c r="YB40" s="5"/>
+      <c r="YC40" s="5"/>
+      <c r="YD40" s="5"/>
+      <c r="YE40" s="5"/>
+      <c r="YF40" s="5"/>
+      <c r="YG40" s="5"/>
+      <c r="YH40" s="5"/>
+      <c r="YI40" s="5"/>
+      <c r="YJ40" s="5"/>
+      <c r="YK40" s="5"/>
+      <c r="YL40" s="5"/>
+      <c r="YM40" s="5"/>
+      <c r="YN40" s="5"/>
+      <c r="YO40" s="5"/>
+      <c r="YP40" s="5"/>
+      <c r="YQ40" s="5"/>
+      <c r="YR40" s="5"/>
+      <c r="YS40" s="5"/>
+      <c r="YT40" s="5"/>
+      <c r="YU40" s="5"/>
+      <c r="YV40" s="5"/>
+      <c r="YW40" s="5"/>
+      <c r="YX40" s="5"/>
+      <c r="YY40" s="5"/>
+      <c r="YZ40" s="5"/>
+      <c r="ZA40" s="5"/>
+      <c r="ZB40" s="5"/>
+      <c r="ZC40" s="5"/>
+      <c r="ZD40" s="5"/>
+      <c r="ZE40" s="5"/>
+      <c r="ZF40" s="5"/>
+      <c r="ZG40" s="5"/>
+      <c r="ZH40" s="5"/>
+      <c r="ZI40" s="5"/>
+      <c r="ZJ40" s="5"/>
+      <c r="ZK40" s="5"/>
+      <c r="ZL40" s="5"/>
+      <c r="ZM40" s="5"/>
+      <c r="ZN40" s="5"/>
+      <c r="ZO40" s="5"/>
+      <c r="ZP40" s="5"/>
+      <c r="ZQ40" s="5"/>
+      <c r="ZR40" s="5"/>
+      <c r="ZS40" s="5"/>
+      <c r="ZT40" s="5"/>
+      <c r="ZU40" s="5"/>
+      <c r="ZV40" s="5"/>
+      <c r="ZW40" s="5"/>
+      <c r="ZX40" s="5"/>
+      <c r="ZY40" s="5"/>
+      <c r="ZZ40" s="5"/>
+      <c r="AAA40" s="5"/>
+      <c r="AAB40" s="5"/>
+      <c r="AAC40" s="5"/>
+      <c r="AAD40" s="5"/>
+      <c r="AAE40" s="5"/>
+      <c r="AAF40" s="5"/>
+      <c r="AAG40" s="5"/>
+      <c r="AAH40" s="5"/>
+      <c r="AAI40" s="5"/>
+      <c r="AAJ40" s="5"/>
+      <c r="AAK40" s="5"/>
+      <c r="AAL40" s="5"/>
+      <c r="AAM40" s="5"/>
+      <c r="AAN40" s="5"/>
+      <c r="AAO40" s="5"/>
+      <c r="AAP40" s="5"/>
+      <c r="AAQ40" s="5"/>
+      <c r="AAR40" s="5"/>
+      <c r="AAS40" s="5"/>
+      <c r="AAT40" s="5"/>
+      <c r="AAU40" s="5"/>
+      <c r="AAV40" s="5"/>
+      <c r="AAW40" s="5"/>
+      <c r="AAX40" s="5"/>
+      <c r="AAY40" s="5"/>
+      <c r="AAZ40" s="5"/>
+      <c r="ABA40" s="5"/>
+      <c r="ABB40" s="5"/>
+      <c r="ABC40" s="5"/>
+      <c r="ABD40" s="5"/>
+      <c r="ABE40" s="5"/>
+      <c r="ABF40" s="5"/>
+      <c r="ABG40" s="5"/>
+      <c r="ABH40" s="5"/>
+      <c r="ABI40" s="5"/>
+      <c r="ABJ40" s="5"/>
+      <c r="ABK40" s="5"/>
+      <c r="ABL40" s="5"/>
+      <c r="ABM40" s="5"/>
+      <c r="ABN40" s="5"/>
+      <c r="ABO40" s="5"/>
+      <c r="ABP40" s="5"/>
+      <c r="ABQ40" s="5"/>
+      <c r="ABR40" s="5"/>
+      <c r="ABS40" s="5"/>
+      <c r="ABT40" s="5"/>
+      <c r="ABU40" s="5"/>
+      <c r="ABV40" s="5"/>
+      <c r="ABW40" s="5"/>
+      <c r="ABX40" s="5"/>
+      <c r="ABY40" s="5"/>
+      <c r="ABZ40" s="5"/>
+      <c r="ACA40" s="5"/>
+      <c r="ACB40" s="5"/>
+      <c r="ACC40" s="5"/>
+      <c r="ACD40" s="5"/>
+      <c r="ACE40" s="5"/>
+      <c r="ACF40" s="5"/>
+      <c r="ACG40" s="5"/>
+      <c r="ACH40" s="5"/>
+      <c r="ACI40" s="5"/>
+      <c r="ACJ40" s="5"/>
+      <c r="ACK40" s="5"/>
+      <c r="ACL40" s="5"/>
+      <c r="ACM40" s="5"/>
+      <c r="ACN40" s="5"/>
+      <c r="ACO40" s="5"/>
+      <c r="ACP40" s="5"/>
+      <c r="ACQ40" s="5"/>
+      <c r="ACR40" s="5"/>
+      <c r="ACS40" s="5"/>
+      <c r="ACT40" s="5"/>
+      <c r="ACU40" s="5"/>
+      <c r="ACV40" s="5"/>
+      <c r="ACW40" s="5"/>
+      <c r="ACX40" s="5"/>
+      <c r="ACY40" s="5"/>
+      <c r="ACZ40" s="5"/>
+      <c r="ADA40" s="5"/>
+      <c r="ADB40" s="5"/>
+      <c r="ADC40" s="5"/>
+      <c r="ADD40" s="5"/>
+      <c r="ADE40" s="5"/>
+      <c r="ADF40" s="5"/>
+      <c r="ADG40" s="5"/>
+      <c r="ADH40" s="5"/>
+      <c r="ADI40" s="5"/>
+      <c r="ADJ40" s="5"/>
+      <c r="ADK40" s="5"/>
+      <c r="ADL40" s="5"/>
+      <c r="ADM40" s="5"/>
+      <c r="ADN40" s="5"/>
+      <c r="ADO40" s="5"/>
+      <c r="ADP40" s="5"/>
+      <c r="ADQ40" s="5"/>
+      <c r="ADR40" s="5"/>
+      <c r="ADS40" s="5"/>
+      <c r="ADT40" s="5"/>
+      <c r="ADU40" s="5"/>
+      <c r="ADV40" s="5"/>
+      <c r="ADW40" s="5"/>
+      <c r="ADX40" s="5"/>
+      <c r="ADY40" s="5"/>
+      <c r="ADZ40" s="5"/>
+      <c r="AEA40" s="5"/>
+      <c r="AEB40" s="5"/>
+      <c r="AEC40" s="5"/>
+      <c r="AED40" s="5"/>
+      <c r="AEE40" s="5"/>
+      <c r="AEF40" s="5"/>
+      <c r="AEG40" s="5"/>
+      <c r="AEH40" s="5"/>
+      <c r="AEI40" s="5"/>
+      <c r="AEJ40" s="5"/>
+      <c r="AEK40" s="5"/>
+      <c r="AEL40" s="5"/>
+      <c r="AEM40" s="5"/>
+      <c r="AEN40" s="5"/>
+      <c r="AEO40" s="5"/>
+      <c r="AEP40" s="5"/>
+      <c r="AEQ40" s="5"/>
+      <c r="AER40" s="5"/>
+      <c r="AES40" s="5"/>
+      <c r="AET40" s="5"/>
+      <c r="AEU40" s="5"/>
+      <c r="AEV40" s="5"/>
+      <c r="AEW40" s="5"/>
+      <c r="AEX40" s="5"/>
+      <c r="AEY40" s="5"/>
+      <c r="AEZ40" s="5"/>
+      <c r="AFA40" s="5"/>
+      <c r="AFB40" s="5"/>
+      <c r="AFC40" s="5"/>
+      <c r="AFD40" s="5"/>
+      <c r="AFE40" s="5"/>
+      <c r="AFF40" s="5"/>
+      <c r="AFG40" s="5"/>
+      <c r="AFH40" s="5"/>
+      <c r="AFI40" s="5"/>
+      <c r="AFJ40" s="5"/>
+      <c r="AFK40" s="5"/>
+      <c r="AFL40" s="5"/>
+      <c r="AFM40" s="5"/>
+      <c r="AFN40" s="5"/>
+      <c r="AFO40" s="5"/>
+      <c r="AFP40" s="5"/>
+      <c r="AFQ40" s="5"/>
+      <c r="AFR40" s="5"/>
+      <c r="AFS40" s="5"/>
+      <c r="AFT40" s="5"/>
+      <c r="AFU40" s="5"/>
+      <c r="AFV40" s="5"/>
+      <c r="AFW40" s="5"/>
+      <c r="AFX40" s="5"/>
+      <c r="AFY40" s="5"/>
+      <c r="AFZ40" s="5"/>
+      <c r="AGA40" s="5"/>
+      <c r="AGB40" s="5"/>
+      <c r="AGC40" s="5"/>
+      <c r="AGD40" s="5"/>
+      <c r="AGE40" s="5"/>
+      <c r="AGF40" s="5"/>
+      <c r="AGG40" s="5"/>
+      <c r="AGH40" s="5"/>
+      <c r="AGI40" s="5"/>
+      <c r="AGJ40" s="5"/>
+      <c r="AGK40" s="5"/>
+      <c r="AGL40" s="5"/>
+      <c r="AGM40" s="5"/>
+      <c r="AGN40" s="5"/>
+      <c r="AGO40" s="5"/>
+      <c r="AGP40" s="5"/>
+      <c r="AGQ40" s="5"/>
+      <c r="AGR40" s="5"/>
+      <c r="AGS40" s="5"/>
+      <c r="AGT40" s="5"/>
+      <c r="AGU40" s="5"/>
+      <c r="AGV40" s="5"/>
+      <c r="AGW40" s="5"/>
+      <c r="AGX40" s="5"/>
+      <c r="AGY40" s="5"/>
+      <c r="AGZ40" s="5"/>
+      <c r="AHA40" s="5"/>
+      <c r="AHB40" s="5"/>
+      <c r="AHC40" s="5"/>
+      <c r="AHD40" s="5"/>
+      <c r="AHE40" s="5"/>
+      <c r="AHF40" s="5"/>
+      <c r="AHG40" s="5"/>
+      <c r="AHH40" s="5"/>
+      <c r="AHI40" s="5"/>
+      <c r="AHJ40" s="5"/>
+      <c r="AHK40" s="5"/>
+      <c r="AHL40" s="5"/>
+      <c r="AHM40" s="5"/>
+      <c r="AHN40" s="5"/>
+      <c r="AHO40" s="5"/>
+      <c r="AHP40" s="5"/>
+      <c r="AHQ40" s="5"/>
+      <c r="AHR40" s="5"/>
+      <c r="AHS40" s="5"/>
+      <c r="AHT40" s="5"/>
+      <c r="AHU40" s="5"/>
+      <c r="AHV40" s="5"/>
+      <c r="AHW40" s="5"/>
+      <c r="AHX40" s="5"/>
+      <c r="AHY40" s="5"/>
+      <c r="AHZ40" s="5"/>
+      <c r="AIA40" s="5"/>
+      <c r="AIB40" s="5"/>
+      <c r="AIC40" s="5"/>
+      <c r="AID40" s="5"/>
+      <c r="AIE40" s="5"/>
+      <c r="AIF40" s="5"/>
+      <c r="AIG40" s="5"/>
+      <c r="AIH40" s="5"/>
+      <c r="AII40" s="5"/>
+      <c r="AIJ40" s="5"/>
+      <c r="AIK40" s="5"/>
+      <c r="AIL40" s="5"/>
+      <c r="AIM40" s="5"/>
+      <c r="AIN40" s="5"/>
+      <c r="AIO40" s="5"/>
+      <c r="AIP40" s="5"/>
+      <c r="AIQ40" s="5"/>
+      <c r="AIR40" s="5"/>
+      <c r="AIS40" s="5"/>
+      <c r="AIT40" s="5"/>
+      <c r="AIU40" s="5"/>
+      <c r="AIV40" s="5"/>
+      <c r="AIW40" s="5"/>
+      <c r="AIX40" s="5"/>
+      <c r="AIY40" s="5"/>
+      <c r="AIZ40" s="5"/>
+      <c r="AJA40" s="5"/>
+      <c r="AJB40" s="5"/>
+      <c r="AJC40" s="5"/>
+      <c r="AJD40" s="5"/>
+      <c r="AJE40" s="5"/>
+      <c r="AJF40" s="5"/>
+      <c r="AJG40" s="5"/>
+      <c r="AJH40" s="5"/>
+      <c r="AJI40" s="5"/>
+      <c r="AJJ40" s="5"/>
+      <c r="AJK40" s="5"/>
+      <c r="AJL40" s="5"/>
+      <c r="AJM40" s="5"/>
+      <c r="AJN40" s="5"/>
+      <c r="AJO40" s="5"/>
+      <c r="AJP40" s="5"/>
+      <c r="AJQ40" s="5"/>
+      <c r="AJR40" s="5"/>
+      <c r="AJS40" s="5"/>
+      <c r="AJT40" s="5"/>
+      <c r="AJU40" s="5"/>
+      <c r="AJV40" s="5"/>
+      <c r="AJW40" s="5"/>
+      <c r="AJX40" s="5"/>
+      <c r="AJY40" s="5"/>
+      <c r="AJZ40" s="5"/>
+      <c r="AKA40" s="5"/>
+      <c r="AKB40" s="5"/>
+      <c r="AKC40" s="5"/>
+      <c r="AKD40" s="5"/>
+      <c r="AKE40" s="5"/>
+      <c r="AKF40" s="5"/>
+      <c r="AKG40" s="5"/>
+      <c r="AKH40" s="5"/>
+      <c r="AKI40" s="5"/>
+      <c r="AKJ40" s="5"/>
+      <c r="AKK40" s="5"/>
+      <c r="AKL40" s="5"/>
+      <c r="AKM40" s="5"/>
+      <c r="AKN40" s="5"/>
+      <c r="AKO40" s="5"/>
+      <c r="AKP40" s="5"/>
+      <c r="AKQ40" s="5"/>
+      <c r="AKR40" s="5"/>
+      <c r="AKS40" s="5"/>
+      <c r="AKT40" s="5"/>
+      <c r="AKU40" s="5"/>
+      <c r="AKV40" s="5"/>
+      <c r="AKW40" s="5"/>
+      <c r="AKX40" s="5"/>
+      <c r="AKY40" s="5"/>
+      <c r="AKZ40" s="5"/>
+      <c r="ALA40" s="5"/>
+      <c r="ALB40" s="5"/>
+      <c r="ALC40" s="5"/>
+      <c r="ALD40" s="5"/>
+      <c r="ALE40" s="5"/>
+      <c r="ALF40" s="5"/>
+      <c r="ALG40" s="5"/>
+      <c r="ALH40" s="5"/>
+      <c r="ALI40" s="5"/>
+      <c r="ALJ40" s="5"/>
+      <c r="ALK40" s="5"/>
+      <c r="ALL40" s="5"/>
+      <c r="ALM40" s="5"/>
+      <c r="ALN40" s="5"/>
+      <c r="ALO40" s="5"/>
+      <c r="ALP40" s="5"/>
+      <c r="ALQ40" s="5"/>
+      <c r="ALR40" s="5"/>
+      <c r="ALS40" s="5"/>
+      <c r="ALT40" s="5"/>
+      <c r="ALU40" s="5"/>
+      <c r="ALV40" s="5"/>
+      <c r="ALW40" s="5"/>
+      <c r="ALX40" s="5"/>
+      <c r="ALY40" s="5"/>
+      <c r="ALZ40" s="5"/>
+      <c r="AMA40" s="5"/>
+      <c r="AMB40" s="5"/>
+      <c r="AMC40" s="5"/>
+      <c r="AMD40" s="5"/>
+      <c r="AME40" s="5"/>
+      <c r="AMF40" s="5"/>
+      <c r="AMG40" s="5"/>
+      <c r="AMH40" s="5"/>
+      <c r="AMI40" s="5"/>
+      <c r="AMJ40" s="5"/>
+      <c r="AMK40" s="5"/>
+      <c r="AML40" s="5"/>
+      <c r="AMM40" s="5"/>
+      <c r="AMN40" s="5"/>
+      <c r="AMO40" s="5"/>
+      <c r="AMP40" s="5"/>
+      <c r="AMQ40" s="5"/>
+      <c r="AMR40" s="5"/>
+      <c r="AMS40" s="5"/>
+      <c r="AMT40" s="5"/>
+      <c r="AMU40" s="5"/>
+      <c r="AMV40" s="5"/>
+      <c r="AMW40" s="5"/>
+      <c r="AMX40" s="5"/>
+      <c r="AMY40" s="5"/>
+      <c r="AMZ40" s="5"/>
+      <c r="ANA40" s="5"/>
+      <c r="ANB40" s="5"/>
+      <c r="ANC40" s="5"/>
+      <c r="AND40" s="5"/>
+      <c r="ANE40" s="5"/>
+      <c r="ANF40" s="5"/>
+      <c r="ANG40" s="5"/>
+      <c r="ANH40" s="5"/>
+      <c r="ANI40" s="5"/>
+      <c r="ANJ40" s="5"/>
+      <c r="ANK40" s="5"/>
+      <c r="ANL40" s="5"/>
+      <c r="ANM40" s="5"/>
+      <c r="ANN40" s="5"/>
+      <c r="ANO40" s="5"/>
+      <c r="ANP40" s="5"/>
+      <c r="ANQ40" s="5"/>
+      <c r="ANR40" s="5"/>
+      <c r="ANS40" s="5"/>
+      <c r="ANT40" s="5"/>
+      <c r="ANU40" s="5"/>
+      <c r="ANV40" s="5"/>
+      <c r="ANW40" s="5"/>
+      <c r="ANX40" s="5"/>
+      <c r="ANY40" s="5"/>
+      <c r="ANZ40" s="5"/>
+      <c r="AOA40" s="5"/>
+      <c r="AOB40" s="5"/>
+      <c r="AOC40" s="5"/>
+      <c r="AOD40" s="5"/>
+      <c r="AOE40" s="5"/>
+      <c r="AOF40" s="5"/>
+      <c r="AOG40" s="5"/>
+      <c r="AOH40" s="5"/>
+      <c r="AOI40" s="5"/>
+      <c r="AOJ40" s="5"/>
+      <c r="AOK40" s="5"/>
+      <c r="AOL40" s="5"/>
+      <c r="AOM40" s="5"/>
+      <c r="AON40" s="5"/>
+      <c r="AOO40" s="5"/>
+      <c r="AOP40" s="5"/>
+      <c r="AOQ40" s="5"/>
+      <c r="AOR40" s="5"/>
+      <c r="AOS40" s="5"/>
+      <c r="AOT40" s="5"/>
+      <c r="AOU40" s="5"/>
+      <c r="AOV40" s="5"/>
+      <c r="AOW40" s="5"/>
+      <c r="AOX40" s="5"/>
+      <c r="AOY40" s="5"/>
+      <c r="AOZ40" s="5"/>
+      <c r="APA40" s="5"/>
+      <c r="APB40" s="5"/>
+      <c r="APC40" s="5"/>
+      <c r="APD40" s="5"/>
+      <c r="APE40" s="5"/>
+      <c r="APF40" s="5"/>
+      <c r="APG40" s="5"/>
+      <c r="APH40" s="5"/>
+      <c r="API40" s="5"/>
+      <c r="APJ40" s="5"/>
+      <c r="APK40" s="5"/>
+      <c r="APL40" s="5"/>
+      <c r="APM40" s="5"/>
+      <c r="APN40" s="5"/>
+      <c r="APO40" s="5"/>
+      <c r="APP40" s="5"/>
+      <c r="APQ40" s="5"/>
+      <c r="APR40" s="5"/>
+      <c r="APS40" s="5"/>
+      <c r="APT40" s="5"/>
+      <c r="APU40" s="5"/>
+      <c r="APV40" s="5"/>
+      <c r="APW40" s="5"/>
+      <c r="APX40" s="5"/>
+      <c r="APY40" s="5"/>
+      <c r="APZ40" s="5"/>
+      <c r="AQA40" s="5"/>
+      <c r="AQB40" s="5"/>
+      <c r="AQC40" s="5"/>
+      <c r="AQD40" s="5"/>
+      <c r="AQE40" s="5"/>
+      <c r="AQF40" s="5"/>
+      <c r="AQG40" s="5"/>
+      <c r="AQH40" s="5"/>
+      <c r="AQI40" s="5"/>
+      <c r="AQJ40" s="5"/>
+      <c r="AQK40" s="5"/>
+      <c r="AQL40" s="5"/>
+      <c r="AQM40" s="5"/>
+      <c r="AQN40" s="5"/>
+      <c r="AQO40" s="5"/>
+      <c r="AQP40" s="5"/>
+      <c r="AQQ40" s="5"/>
+      <c r="AQR40" s="5"/>
+      <c r="AQS40" s="5"/>
+      <c r="AQT40" s="5"/>
+      <c r="AQU40" s="5"/>
+      <c r="AQV40" s="5"/>
+      <c r="AQW40" s="5"/>
+      <c r="AQX40" s="5"/>
+      <c r="AQY40" s="5"/>
+      <c r="AQZ40" s="5"/>
+      <c r="ARA40" s="5"/>
+      <c r="ARB40" s="5"/>
+      <c r="ARC40" s="5"/>
+      <c r="ARD40" s="5"/>
+      <c r="ARE40" s="5"/>
+      <c r="ARF40" s="5"/>
+      <c r="ARG40" s="5"/>
+      <c r="ARH40" s="5"/>
+      <c r="ARI40" s="5"/>
+      <c r="ARJ40" s="5"/>
+      <c r="ARK40" s="5"/>
+      <c r="ARL40" s="5"/>
+      <c r="ARM40" s="5"/>
+      <c r="ARN40" s="5"/>
+      <c r="ARO40" s="5"/>
+      <c r="ARP40" s="5"/>
+      <c r="ARQ40" s="5"/>
+      <c r="ARR40" s="5"/>
+      <c r="ARS40" s="5"/>
+      <c r="ART40" s="5"/>
+      <c r="ARU40" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -37274,13 +39592,13 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15.75" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1"/>
     </row>
@@ -37289,10 +39607,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2"/>
       <c r="E2" s="6"/>
@@ -37302,10 +39620,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
